--- a/BasicMod-master/形态牌.xlsx
+++ b/BasicMod-master/形态牌.xlsx
@@ -14,174 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>曲名</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>UPG_DAMAGE</t>
-  </si>
-  <si>
-    <t>BLOCK</t>
-  </si>
-  <si>
-    <t>UPG_BLOCK</t>
-  </si>
-  <si>
-    <t>MAGIC</t>
-  </si>
-  <si>
-    <t>UPG_MAGIC</t>
-  </si>
-  <si>
-    <t>稀有度区别</t>
-  </si>
-  <si>
-    <t>碧天伴走</t>
-  </si>
-  <si>
-    <t>Hekitenbansou</t>
-  </si>
-  <si>
-    <t>攻击后本场战斗额外3点伤害,消耗</t>
-  </si>
-  <si>
-    <t>消灭敌人后将该牌的复制置入手牌</t>
-  </si>
-  <si>
-    <t>輪符雨</t>
-  </si>
-  <si>
-    <t>Refrain</t>
-  </si>
-  <si>
-    <t>造成你本回合恢复血量magic倍的伤害,群攻</t>
-  </si>
-  <si>
-    <t>造成你本回合血量变化magic倍的伤害</t>
-  </si>
-  <si>
-    <t>迷路日</t>
-  </si>
-  <si>
-    <t>Melody</t>
-  </si>
-  <si>
-    <t>攻击随机敌人，每有一点闪耀重复1次</t>
-  </si>
-  <si>
-    <t>攻击随机敌人，每有一点闪耀重复2次</t>
-  </si>
-  <si>
-    <t>名無声</t>
-  </si>
-  <si>
-    <t>Namonaki</t>
-  </si>
-  <si>
-    <t>耗能为0,获得magic重力</t>
-  </si>
-  <si>
-    <t>获得两点能量</t>
-  </si>
-  <si>
-    <t>迷星叫</t>
-  </si>
-  <si>
-    <t>Mayoiuta</t>
-  </si>
-  <si>
-    <t>耗能为0</t>
-  </si>
-  <si>
-    <t>从非手牌打出造成3倍伤害</t>
-  </si>
-  <si>
-    <t>潜在表明</t>
-  </si>
-  <si>
-    <t>Senzaihyoumei</t>
-  </si>
-  <si>
-    <t>额外造成当前重力magic倍的伤害</t>
-  </si>
-  <si>
-    <t>对所有敌人造成伤害</t>
-  </si>
-  <si>
-    <t>詩超絆</t>
-  </si>
-  <si>
-    <t>Utakotoba</t>
-  </si>
-  <si>
-    <t>攻击后本场战斗额外造成magic点伤害</t>
-  </si>
-  <si>
-    <t>攻击后basedamage翻倍</t>
-  </si>
-  <si>
-    <t>無路矢</t>
-  </si>
-  <si>
-    <t>Noroshi</t>
-  </si>
-  <si>
-    <t>攻击后再对随机一个其他目标造成伤害</t>
-  </si>
-  <si>
-    <t>攻击后每次使伤害-1，对随机一个其他目标造成伤害，直到减为0</t>
-  </si>
-  <si>
-    <t>壱雫空</t>
-  </si>
-  <si>
-    <t>Hitoshizuku</t>
-  </si>
-  <si>
-    <t>造成magic次伤害</t>
-  </si>
-  <si>
-    <t>击杀后额外的攻击次数由另一个随机敌人承担</t>
-  </si>
-  <si>
-    <t>影色舞</t>
-  </si>
-  <si>
-    <t>SihouetteDance</t>
-  </si>
-  <si>
-    <t>触发当前形态效果</t>
-  </si>
-  <si>
-    <t>触发当前形态和永久形态效果</t>
-  </si>
-  <si>
-    <t>音一会</t>
-  </si>
-  <si>
-    <t>Otoichie</t>
-  </si>
-  <si>
-    <t>获得等同于damage的格挡，群攻</t>
-  </si>
-  <si>
-    <t>造成等同于block的伤害</t>
-  </si>
-  <si>
-    <t>春日影</t>
-  </si>
-  <si>
-    <t>Haruhikage</t>
-  </si>
-  <si>
-    <t>恢复等于damage的血量，只有最高等级</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+  <si>
+    <t>形态</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>升级效果</t>
+  </si>
+  <si>
+    <t>主唱</t>
+  </si>
+  <si>
+    <t>抽一张牌</t>
+  </si>
+  <si>
+    <t>使用一张音乐牌</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>抽2</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>获得2点能量</t>
+  </si>
+  <si>
+    <t>下个回合开始时</t>
+  </si>
+  <si>
+    <t>0费</t>
+  </si>
+  <si>
+    <t>暗黑形</t>
+  </si>
+  <si>
+    <t>获得一层仪式</t>
+  </si>
+  <si>
+    <t>战斗开始时</t>
+  </si>
+  <si>
+    <t>RARY</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>获得1点力量</t>
+  </si>
+  <si>
+    <t>每当有卡牌被消耗时</t>
+  </si>
+  <si>
+    <t>UNCOMMON</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>3点护甲</t>
+  </si>
+  <si>
+    <t>失去生命时</t>
+  </si>
+  <si>
+    <t>4点</t>
+  </si>
+  <si>
+    <t>领域展开</t>
+  </si>
+  <si>
+    <t>2点重力</t>
+  </si>
+  <si>
+    <t>回合结束时</t>
+  </si>
+  <si>
+    <t>3点</t>
+  </si>
+  <si>
+    <t>天文部长</t>
+  </si>
+  <si>
+    <t>预见2</t>
+  </si>
+  <si>
+    <t>回合开始时</t>
+  </si>
+  <si>
+    <t>预见3</t>
   </si>
 </sst>
 </file>
@@ -194,13 +134,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="15"/>
@@ -661,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,34 +619,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,98 +655,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +757,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,7 +1084,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1170,152 +1119,178 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="19" spans="1:9">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="18.5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1325,115 +1300,63 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" ht="19" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1443,176 +1366,96 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" ht="19" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" ht="19" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1622,115 +1465,63 @@
     <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1">
-        <v>6</v>
-      </c>
-      <c r="H28" s="1">
-        <v>3</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1740,50 +1531,30 @@
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1795,38 +1566,22 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BasicMod-master/形态牌.xlsx
+++ b/BasicMod-master/形态牌.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="13190"/>
+    <workbookView windowWidth="12130" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>形态</t>
   </si>
@@ -67,7 +67,7 @@
     <t>获得一层仪式</t>
   </si>
   <si>
-    <t>战斗开始时</t>
+    <t>被移除时</t>
   </si>
   <si>
     <t>RARY</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>UNCOMMON</t>
+  </si>
+  <si>
+    <t>1费</t>
   </si>
   <si>
     <t>企鹅</t>
@@ -1084,7 +1087,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1208,10 +1211,10 @@
         <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1219,13 +1222,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1242,13 +1245,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
@@ -1257,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1265,13 +1268,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/BasicMod-master/形态牌.xlsx
+++ b/BasicMod-master/形态牌.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="13040"/>
+    <workbookView windowWidth="24930" windowHeight="13190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
     <t>领域展开</t>
   </si>
   <si>
-    <t>2点重力</t>
+    <t>3点重力</t>
   </si>
   <si>
     <t>回合结束时</t>
   </si>
   <si>
-    <t>3点</t>
+    <t>1费用</t>
   </si>
   <si>
     <t>天文部长</t>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1197,7 +1197,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="18.5" spans="1:9">
+    <row r="5" ht="13" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>

--- a/BasicMod-master/形态牌.xlsx
+++ b/BasicMod-master/形态牌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>形态</t>
   </si>
@@ -67,7 +67,7 @@
     <t>获得一层仪式</t>
   </si>
   <si>
-    <t>被移除时</t>
+    <t>切换形态时候</t>
   </si>
   <si>
     <t>RARY</t>
@@ -76,6 +76,9 @@
     <t>消耗</t>
   </si>
   <si>
+    <t>目前的实现是放在BaseCardForm use方法里，因为目前只有使用牌时会切换形态。</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>1费</t>
+  </si>
+  <si>
+    <t>如果以后还有别的切换形态方式，考虑使用monitor</t>
   </si>
   <si>
     <t>企鹅</t>
@@ -1087,7 +1093,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1099,7 +1105,7 @@
     <col min="5" max="5" width="16.4545454545455" customWidth="1"/>
     <col min="6" max="6" width="21.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="14.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="19.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="63.3636363636364" customWidth="1"/>
     <col min="9" max="9" width="44.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1194,41 +1200,45 @@
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" ht="13" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1237,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1245,22 +1255,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1268,13 +1278,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1283,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
